--- a/src/test/java/docs/SpotifyAPITestCases.xlsx
+++ b/src/test/java/docs/SpotifyAPITestCases.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CP_CreatePlaylist" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ATTP_AddTracksToPlaylist" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CP_CreatePlaylist" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AITP_AddItemsToPlaylist" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="314">
   <si>
     <t xml:space="preserve">Title:</t>
   </si>
@@ -56,9 +59,15 @@
     <t xml:space="preserve">Create Playlist</t>
   </si>
   <si>
+    <t xml:space="preserve">Add Tracks To Playlist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test case id</t>
   </si>
   <si>
+    <t xml:space="preserve">Test scenario</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test case name</t>
   </si>
   <si>
@@ -69,6 +78,1026 @@
   </si>
   <si>
     <t xml:space="preserve">Expected results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track to playlist
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 1
+Playlist contains the track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to empty playlist at position 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track to playlist at position 0
+2) Read playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Total number of track is 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Playlist contains given track</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track to empty playlist at position other then 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add track to playlist at position 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 403
+Json error status is 403
+Json error msg is “Index out of bounds"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 5 tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track to playlist without giving position
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 6
+Size of playlist is 6
+Track was added to the end of playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to the beginning of populated playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 6
+Size of playlist is 6
+Track was added to the beginning of playlist
+Prerequisite tracks are shifted in playlist by one to right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist at position lower than limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 100 tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track to playlist at given position [see comments column]
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 101
+Size of playlist is 100
+Track was added to playlist at given positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Position 5
+2) Position 35
+3) Position 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist at position greater or equal to limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 104 tracks to playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Add track to playlist at position 102
+2) Read playlist items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with offset set to limit (second page of playlist)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist items:
+Total number of track is 105
+Size of second page of playlist is 5
+Track was added to playlist at position at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Position 100  
+2) Position 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t add track at position higher than playlist size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add tracks to playlist at position 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks separately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks separately to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add 3 tracks to playlist in separate requests
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 3
+Size of playlist is 3
+Playlist contains given tracks in order of being added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the same track twice in separated request to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track to playlist 
+2) Add the same track to playlist again
+3) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 2
+Size of playlist is 2
+Playlist contains given track twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks in one request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks in one request to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add given number of tracks to playlist in one request [see comments column]
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is equal to expected number of tracks
+Size of playlist is equal to expected number of tracks
+Playlist contains given tracks in order of being listed in request</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of tracks: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of tracks: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the same track twice in one request to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add the same track twice in one request 
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add the same track twice in one request to populated playlist at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 30 tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add track twice in one request to playlist at position 25
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 32
+Size of playlist is 32
+Track was added twice to playlist starting at position 25
+Prerequisite tracks are shifted in playlist by two to right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add more than 100 tracks in one request to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add 101 tracks to playlist in one request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Tracks can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “You can add a maximum of 100 tracks per request"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist at current page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add given number of tracks to playlist in one request at given position [see comments column] 
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is equal to sum of prerequisite  tracks and add tracks
+Size of playlist is equal to sum of prerequisite tracks and added tracks
+Tracks were added to playlist at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Number of tracks: 6, position:10
+2) Number of tracks: 3, position 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist partially shifted to next page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Add given number of tracks to playlist in one request </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">at given position [see comments column] 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2) Read playlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (first page)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3) Read items of playlist with offset set to limit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(second page of playlist)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">equal to sum of prerequisite  tracks and add tracks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Size of playlist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">is equal to limit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 tracks were added to playlist at given position
+3) response for read playlist items:
+Total number of track is 103
+Size of playlist is equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sum of prerequisite  tracks and add tracks minus limit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tracks are added add given position</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Number of tracks: 6, position:97
+2) Number of tracks: 12, position 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist at next page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Add given number of tracks to playlist in one request
+2) Read items of playlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with offset set to limit (second page of playlist)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist items:
+Total number of track </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is equal to sum of prerequisite  tracks and add tracks
+Size of playlist is equal to sum of prerequisite  tracks and add tracks minus limit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tracks were added to playlist at given position</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Number of tracks: 6, position:100
+2) Number of tracks: 12, position 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add max number of tracks per request to populated playlist at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 4 tracks to playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Add 100 of tracks to playlist in one request at position 2
+2) Read playlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (first page)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3) Read items of playlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with offset set to limit (second page of playlist)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 104
+Size of playlist is equal to limit (100)
+98 tracks were added to playlist at given position
+3) response for read playlist items:
+Total number of track is 104
+Size of playlist is equal to 4
+2 track was added to playlist at position 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to the beginning of playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Add number of tracks [see comments column] to playlist in one request at position 0
+2) Read playlist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (first page)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Tracks were added to the beginning of playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of tracks: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">51
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of tracks:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift playlist tracks when new tracks added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks in current page when tracks added to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add number of prerequisite tracks to playlist [see comments column]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add number of tracks [see comments column] to playlist in one request at given position 
+2) Read playlist (first page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Prerequisite tracks after given position were shifted right by number of added tracks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Number of prerequisite tracks: 50, number of added tracks: 3, position: 40
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2) Number of prerequisite tracks: 93, number of added tracks: 6, position: 12</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks partially from current to next page when tracks added to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add number of tracks [see comments column] to playlist in one request at given position 
+2) Read playlist (first page)
+3) Read items of playlist with offset set to limit (second page of playlist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Prerequisite tracks over position to limit are shifted by number of added tracks
+3) response for read playlist items
+Number of tracks from first page of playlist was moved to next page
+Tracks on next page were shifted to right by number of added tracks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Number of prerequisite tracks: 108, number of added tracks: 8, position: 90
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2) Number of prerequisite tracks: 105, number of added tracks: 3, position: 40</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks only in second page when tracks added to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add number of tracks [see comments column] to playlist in one request at given position 
+2) Read items of playlist with offset set to limit (second page of playlist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) Response for read playlist items
+Tracks on next page were shifted to right by number of added tracks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1) Number of prerequisite tracks: 105, number of added tracks: 3, position: 97
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2) Number of prerequisite tracks: 105, number of added tracks: 5, position: 98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t add tracks at invalid position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add tracks to playlist at position equal to “invalid”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “Error parsing JSON"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t add tracks at negative position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Try to add tracks to playlist at position -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “Invalid position, must be positive”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid track uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if no uri param provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to send add request without uri param in body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if invalid uri provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to send add request with invalid uri [see comments column] in body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “Invalid track uri"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uri = “invalid”
+Uri = “”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if non existing uri provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to send add request with uri equal to "spotify:track:xxxxxxxxxxxxxxxxxxxxxx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “Payload contains a non-existing ID"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid playlist id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if empty playlist id param provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add track to playlist with empty id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 404
+Json error status is 404
+Json error msg is “Service not found"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if invalid playlist id provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add track to playlist with empty id
+[see comments column]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 404
+Json error status is 404
+Json error msg is “Invalid playlist Id"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlaylistId = “invalid”
+PlaylistId = “6mEDXudCd0bPn3BpO6aq1w”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if empty token provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add track to playlist without providing a token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 400
+Json error msg is “Only valid bearer authentication supported"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add track if invalid token provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add track to playlist providing an invalid token [see comments column]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Track can’t be added:
+Status code 400
+Json error status is 401
+Json error msg is “Invalid access token"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token = "BQCF16QgSL67yrHfCXiV6zecYIs0GyqUhxUl91APJ-24vEvuO9l36j0ytt31UcwSFVLmtpJ9sr_EbA3beQ3kI6ABmyWSk_gPxErIeYprcQZsCV2tReVJxtcFdf3Y5IPpeY_z1tVUCEToeoeq7kSmXTNoVmgmOlePlnMXMHeDrmjQL0TcDDqD9UTq3t-2bWpF5O_nvtF8CPEsveTkezBd6F8tDO79J01L2gXvo0_RhGEEO5-IVhTr1QzFaUhzeXDBrpdXQl6erre4CHMruikbyNXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid kind of uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't add other items different than tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Try to add item that is not a track to the list [list of items is in comments column]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Album uri = “spotify:album:6QPkyl04rXwTGlGlcYaRoW”
+Artist uri = "spotify:artist:31TPClRtHm23RisEBtV3X7"
+Show uri = "spotify:show:71mvGXupfKcmO6jlmOJQTP"
+Playlist uri = "spotify:playlist:61W5Bkyt70pktVLwTGp3CY"</t>
   </si>
   <si>
     <t xml:space="preserve">CP1</t>
@@ -418,6 +1447,236 @@
 Json error status is 401
 Json error msg is “Invalid access token"</t>
   </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 3 tracks separately to empty playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks in playlist if a new track added at given position (total playlist size less 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist (total playlist size less 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist (total playlist size over 100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add tracks to populated playlist starting at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks in playlist if new tracks added at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 track Lista &lt;=99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 track lista =100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 track lista &gt;100 on position &lt;0,99&gt; on position &lt;100,oo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist at position &lt;=99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single track to populated playlist at position &gt; 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 3 tracks to populated playlist at position &lt;98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 3 tracks to populated playlist at position = 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 3 tracks to populated playlist at position &gt; 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift playlist tracks when single track added to playlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Shift playlist tracks when 4 tracks added to playlist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">at position &lt;98</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift playlist tracks when 4 tracks added to playlist at position = 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift playlist tracks when 4 tracks added to playlist at position &gt;99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 1
+Size of playlist is 1
+Playlist contains the track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of tracks:
+1) 3
+2) 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Size of playlist is 1
+Playlist contains given track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 39 tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is 40
+Size of playlist is 40
+Track was added to playlist at given positions
+Prerequisite tracks are shifted in playlist by one to right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift tracks in playlist if a new track added at given position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add given number of tracks to playlist in one request [see comments column] 
+2) Read playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is equal to sum of prerequisite  tracks and add tracks
+Size of playlist is equal to sum of prerequisite  tracks and add tracks
+Tracks were added to the end of playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of tracks:
+1) 3
+2) 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a playlist
+Add 53 tracks to playlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Add given number of tracks to playlist in one request [see comments column] 
+2) Read playlist
+3) Read items of playlist with offset 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Status code for add track is 200
+2) response for read playlist:
+Total number of track is equal to sum of prerequisite  tracks and add tracks
+Size of playlist is equal to 100
+Tracks were added to the end of playlist
+3) response for read items of playlist:
+Total number of track is equal to sum of prerequisite  tracks and add tracks
+Size of playlist is equal to difference between total number of tracks and limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of tracks:
+1) 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token = "BQCF16QgSL67yrHfCXiV6zecYIs0GyqUhxUl91APJ-24vEvuO9l36j0ytt31UcwSFVLmtpJ9s" +
+        "r_EbA3beQ3kI6ABmyWSk_gPxErIeYprcQZsCV2tReVJxtcFdf3Y5IPpeY_z1tVUCEToeoeq7kSmXTNoVmgmOlePlnMXMHeDrmjQL0TcDDqD" +
+        "9UTq3t-2bWpF5O_nvtF8CPEsveTkezBd6F8tDO79J01L2gXvo0_RhGEEO5-IVhTr1QzFaUhzeXDBrpdXQl6erre4CHMruikbyNXX"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AITP_28</t>
+  </si>
 </sst>
 </file>
 
@@ -427,11 +1686,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -452,20 +1712,41 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,7 +1756,79 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3FAF46"/>
-        <bgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF50938A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF3FAF46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50938A"/>
+        <bgColor rgb="FF5983B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF5983B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE16173"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF50938A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,7 +1866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -538,15 +1891,107 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,28 +2008,28 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -602,15 +2047,15 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF3FAF46"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF6B5E9B"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF3FAF46"/>
+      <rgbColor rgb="FF50938A"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -627,13 +2072,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.08"/>
@@ -691,6 +2136,11 @@
       </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -712,15 +2162,754 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="50.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="38.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="43.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="87.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="5" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="71.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="56.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="46.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="44.61"/>
@@ -730,361 +2919,361 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>175</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>180</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>185</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
+        <v>189</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>193</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>196</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>200</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>49</v>
+        <v>204</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>53</v>
+        <v>208</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>57</v>
+        <v>212</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
+        <v>217</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>221</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>70</v>
+        <v>225</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>229</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>78</v>
+        <v>233</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>49</v>
+        <v>237</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>85</v>
+        <v>240</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>89</v>
+        <v>244</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>94</v>
+        <v>249</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>98</v>
+        <v>249</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1096,4 +3285,893 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="28"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="51.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="19.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="35.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="38.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="17.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="28" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="30" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="58.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="69.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="92.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="58.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="58.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="58.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="46.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="81.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="81.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="28" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="92.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="46.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="28" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>